--- a/xlsx2py/rpgdemo/xlsxs/city_init.xlsx
+++ b/xlsx2py/rpgdemo/xlsxs/city_init.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>男:1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>SpaceID</t>
+  </si>
+  <si>
+    <t>Selllattice1[][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -652,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -666,11 +670,12 @@
     <col min="4" max="4" width="17.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="28.5546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.6640625" style="1"/>
+    <col min="7" max="7" width="26" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -692,8 +697,11 @@
       <c r="G1" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -716,7 +724,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>0</v>
       </c>
@@ -739,7 +747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -762,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -785,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -808,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -831,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>5</v>
       </c>
